--- a/xlsx/福利经济学_intext.xlsx
+++ b/xlsx/福利经济学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
   <si>
     <t>福利经济学</t>
   </si>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非洲經濟</t>
+    <t>非洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>亞洲經濟</t>
+    <t>亚洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>農業經濟學</t>
+    <t>农业经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會經濟學</t>
+    <t>社会经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資源導向型經濟</t>
+    <t>资源导向型经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
@@ -479,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%85%E6%82%96%E8%AB%96</t>
   </si>
   <si>
-    <t>阿羅悖論</t>
+    <t>阿罗悖论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BC%A6%E8%8C%A8%E6%9B%B2%E7%BA%BF</t>
@@ -521,27 +521,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>個體經濟學</t>
+    <t>个体经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國民生產總值</t>
+    <t>国民生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%B4%AF%E6%89%98%E6%9C%80%E9%81%A9</t>
   </si>
   <si>
-    <t>帕累托最適</t>
+    <t>帕累托最适</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6%E7%9B%B8%E5%85%B3%E4%B8%BB%E9%A2%98%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%93%81_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>物品 (經濟學)</t>
+    <t>物品 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9%E7%89%A9%E5%93%81</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
@@ -581,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F%E6%A5%B5%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>約束極大化</t>
+    <t>约束极大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
+    <t>机会成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%B2%A1%E6%88%90%E6%9C%AC</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E6%9B%B2%E7%BA%BF</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -635,13 +632,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excess_supply</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%9D%87%E8%A1%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>一般均衡理論</t>
+    <t>一般均衡理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD</t>
@@ -665,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%84%AA%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等優曲線</t>
+    <t>等优曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97%E7%B7%9A</t>
   </si>
   <si>
-    <t>預算線</t>
+    <t>预算线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Income%E2%80%93consumption_curve</t>
@@ -683,13 +680,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E5%8E%AD%E6%83%A1</t>
   </si>
   <si>
-    <t>風險厭惡</t>
+    <t>风险厌恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%9F%E5%A4%B1%E8%A7%84%E9%81%BF</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%8B%95%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>變動成本</t>
+    <t>变动成本</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Average_cost</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>邊際成本</t>
+    <t>边际成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -761,19 +758,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%94%A2%E9%87%8F%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等產量曲線</t>
+    <t>等产量曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economies_of_scope</t>
@@ -785,19 +782,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>消费者剩余</t>
+    <t>消费者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>生产者剩余</t>
+    <t>生产者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%B0%93%E6%8D%9F%E5%A4%B1</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
+    <t>市场失灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%96%B9%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>賣方壟斷</t>
+    <t>卖方垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B0%E6%96%B9%E5%9E%84%E6%96%AD</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>寡頭壟斷</t>
+    <t>寡头垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A4%B4%E5%9E%84%E6%96%AD</t>
@@ -881,37 +878,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算經濟學</t>
+    <t>计算经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
+    <t>决策论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計量經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>家庭經濟學</t>
+    <t>家庭经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
@@ -923,9 +914,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理經濟學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Microfoundations</t>
   </si>
   <si>
@@ -935,19 +923,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -959,13 +944,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟學</t>
   </si>
 </sst>
 </file>
@@ -3859,7 +3841,7 @@
         <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3885,10 +3867,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3914,10 +3896,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3943,10 +3925,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -3972,10 +3954,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4001,10 +3983,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4030,10 +4012,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4059,10 +4041,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4088,10 +4070,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4117,10 +4099,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4146,10 +4128,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4175,10 +4157,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4204,10 +4186,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4233,10 +4215,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4262,10 +4244,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4291,10 +4273,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4320,10 +4302,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4349,10 +4331,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4378,10 +4360,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4407,10 +4389,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4436,10 +4418,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4465,10 +4447,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4494,10 +4476,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4523,10 +4505,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4552,10 +4534,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4581,10 +4563,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4610,10 +4592,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4639,10 +4621,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4668,10 +4650,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4697,10 +4679,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4726,10 +4708,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4755,10 +4737,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4784,10 +4766,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4813,10 +4795,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4842,10 +4824,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4871,10 +4853,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4900,10 +4882,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4929,10 +4911,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4958,10 +4940,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4987,10 +4969,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5016,10 +4998,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5045,10 +5027,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5074,10 +5056,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5103,10 +5085,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5132,10 +5114,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5161,10 +5143,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5190,10 +5172,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5219,10 +5201,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5248,10 +5230,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5277,10 +5259,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5306,10 +5288,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5335,10 +5317,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5364,10 +5346,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5393,10 +5375,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5422,10 +5404,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5451,10 +5433,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5509,10 +5491,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5538,10 +5520,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5567,10 +5549,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5596,10 +5578,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5654,10 +5636,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5683,10 +5665,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5741,10 +5723,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5770,10 +5752,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5799,10 +5781,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5828,10 +5810,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5857,10 +5839,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5886,10 +5868,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -5915,10 +5897,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -5944,10 +5926,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5973,10 +5955,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6002,10 +5984,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>6</v>
       </c>
       <c r="G162" t="n">
         <v>18</v>
